--- a/tests/test_plate_layout.xlsx
+++ b/tests/test_plate_layout.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>Sample_1</t>
+          <t>Sample_2</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Sample_2</t>
+          <t>Sample_3</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Sample_2</t>
+          <t>Sample_4</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Sample_3</t>
+          <t>Sample_5</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>Sample_3</t>
+          <t>Sample_6</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Sample_4</t>
+          <t>Sample_7</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>Sample_4</t>
+          <t>Sample_8</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Sample_5</t>
+          <t>Sample_9</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>Sample_5</t>
+          <t>Sample_10</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Sample_6</t>
+          <t>Sample_11</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>Sample_6</t>
+          <t>Sample_12</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -938,27 +938,27 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Sample_7</t>
+          <t>Sample_1</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4" t="inlineStr"/>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>Sample_7</t>
+          <t>Sample_2</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
     </row>
@@ -998,27 +998,27 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Sample_8</t>
+          <t>Sample_3</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4" t="inlineStr"/>
     </row>
@@ -1028,27 +1028,27 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Sample_8</t>
+          <t>Sample_4</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
     </row>
@@ -1058,27 +1058,27 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Sample_9</t>
+          <t>Sample_5</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4" t="inlineStr"/>
     </row>
@@ -1088,27 +1088,27 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>Sample_9</t>
+          <t>Sample_6</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr"/>
       <c r="G22" s="5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H22" s="5" t="inlineStr"/>
     </row>
@@ -1118,27 +1118,27 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>NC_3_AB</t>
+          <t>Sample_7</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H23" s="4" t="inlineStr"/>
     </row>
@@ -1148,27 +1148,27 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>Sample_10</t>
+          <t>NC_1_AB</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
     </row>
@@ -1178,27 +1178,27 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Sample_10</t>
+          <t>NC_2_AB</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4" t="inlineStr"/>
     </row>
@@ -1208,27 +1208,27 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>Sample_11</t>
+          <t>Sample_8</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H26" s="5" t="inlineStr"/>
     </row>
@@ -1238,27 +1238,27 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Sample_11</t>
+          <t>Sample_9</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="inlineStr"/>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>Sample_12</t>
+          <t>Sample_10</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr"/>
       <c r="G28" s="5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H28" s="5" t="inlineStr"/>
     </row>
@@ -1298,27 +1298,27 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>NC_4_AB</t>
+          <t>Sample_11</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H29" s="4" t="inlineStr"/>
     </row>
@@ -1333,864 +1333,24 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr"/>
       <c r="G30" s="5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H30" s="5" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Sample_1</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>A8</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Sample_1</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr"/>
-      <c r="G32" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Sample_2</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>A6</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr"/>
-      <c r="G33" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="4" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Sample_2</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr"/>
-      <c r="G34" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H34" s="5" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Sample_3</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35" s="4" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>Sample_3</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="inlineStr"/>
-      <c r="G36" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" s="5" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Sample_4</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>NC_1_AB</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr"/>
-      <c r="G38" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H38" s="5" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>NC_2_AB</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>B8</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H39" s="4" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>Sample_4</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="inlineStr"/>
-      <c r="G40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H40" s="5" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Sample_5</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H41" s="4" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>Sample_5</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="inlineStr">
-        <is>
-          <t>B5</t>
-        </is>
-      </c>
-      <c r="F42" s="5" t="inlineStr"/>
-      <c r="G42" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H42" s="5" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Sample_6</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr"/>
-      <c r="G43" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H43" s="4" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>Sample_6</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="F44" s="5" t="inlineStr"/>
-      <c r="G44" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="H44" s="5" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Sample_7</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="H45" s="4" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>Sample_7</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="F46" s="5" t="inlineStr"/>
-      <c r="G46" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H46" s="5" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Sample_8</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>C8</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr"/>
-      <c r="G47" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H47" s="4" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>Sample_8</t>
-        </is>
-      </c>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="E48" s="5" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="F48" s="5" t="inlineStr"/>
-      <c r="G48" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H48" s="5" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Sample_9</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>C6</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H49" s="4" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>Sample_9</t>
-        </is>
-      </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="inlineStr">
-        <is>
-          <t>C5</t>
-        </is>
-      </c>
-      <c r="F50" s="5" t="inlineStr"/>
-      <c r="G50" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H50" s="5" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>NC_3_AB</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="H51" s="4" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5" t="inlineStr">
-        <is>
-          <t>Sample_10</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>F3</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="inlineStr"/>
-      <c r="G52" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="H52" s="5" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>Sample_10</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H53" s="4" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5" t="inlineStr">
-        <is>
-          <t>Sample_11</t>
-        </is>
-      </c>
-      <c r="C54" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" s="5" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="E54" s="5" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="F54" s="5" t="inlineStr"/>
-      <c r="G54" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="H54" s="5" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Sample_11</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>D8</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr"/>
-      <c r="G55" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H55" s="4" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>Sample_12</t>
-        </is>
-      </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="F56" s="5" t="inlineStr"/>
-      <c r="G56" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="H56" s="5" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>NC_4_AB</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>D6</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="H57" s="4" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>Sample_12</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>D4</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr"/>
-      <c r="G58" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="H58" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
